--- a/public/sample_uploads/allocate_account_entries_2/fund_formulas.xlsx
+++ b/public/sample_uploads/allocate_account_entries_2/fund_formulas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/extreme fund/comprehensive fund/upload files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{5117E30C-E1A9-42D6-A192-55B5BDC6F2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0679214A-EEE2-49EF-A654-7D40A51488AA}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5117E30C-E1A9-42D6-A192-55B5BDC6F2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C3F85AE-E881-4A26-AE83-F869B4320F92}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="164">
   <si>
     <t>Sequence</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>capital_commitment.account_entries.where(reporting_date: ..@end_date, name: "Deal Expense Capitalized", parent_type: "Investor",cumulative: true).sum(:amount_cents)</t>
+  </si>
+  <si>
+    <t>custom_field_key = account_entry.custom_fields.fund_level_udr_code&amp;.downcase.gsub("-","").parameterize(separator: "_");
+fx_rate = account_entry.custom_fields["exchange_rate"]&amp;.to_d if account_entry.custom_fields["exchange_rate"].present?;
+fx_rate=exchange_rate.rate if fx_rate==nil;
+(account_entry.amount_cents * fx_rate) * (capital_commitment.custom_fields.send(custom_field_key.to_s).to_d / 100)</t>
   </si>
 </sst>
 </file>
@@ -557,12 +563,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -577,9 +589,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -777,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="G50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="G65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3164,8 +3179,8 @@
       <c r="E78" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>161</v>
+      <c r="G78" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="H78" t="s">
         <v>78</v>
